--- a/Empresas.xlsx
+++ b/Empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pro\Bot_ataque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6147B689-3AA6-40BC-97B1-F4D57DF9C037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14614E2-A32A-4D1E-8828-6410D5827413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18720" xr2:uid="{1FA2B973-9B2F-46C8-95F1-37121DA9CBFD}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Palabras Clave</t>
   </si>
@@ -47,20 +44,29 @@
     <t>zapatillas nike hombre</t>
   </si>
   <si>
-    <t>Nike Colombia</t>
-  </si>
-  <si>
     <t>paintball bogota</t>
   </si>
   <si>
-    <t>Gum Paintball Bogota</t>
+    <t>cursos de ingles bogota</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>url Form</t>
+  </si>
+  <si>
+    <t>www.test.com</t>
+  </si>
+  <si>
+    <t>openenglish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,29 +76,30 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF212121"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -156,29 +163,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,43 +517,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5F7E45-7D80-4863-978D-3E83CECDF84A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{20C6A2E4-0E2C-4462-8BBE-5CC4AFBC55F5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E0A11A4E-D16A-4303-A9E9-258E08C47F64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>